--- a/TheWomyn_TableForRetro1.xlsx
+++ b/TheWomyn_TableForRetro1.xlsx
@@ -564,18 +564,6 @@
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -629,15 +617,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -652,6 +631,27 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1000,1438 +1000,1443 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="5"/>
-    <col min="4" max="5" width="8.83203125" style="6"/>
-    <col min="6" max="6" width="8.83203125" style="7"/>
-    <col min="7" max="7" width="8.83203125" style="6"/>
-    <col min="8" max="8" width="8.83203125" style="5"/>
-    <col min="9" max="9" width="8.83203125" style="8"/>
-    <col min="10" max="10" width="8.83203125" style="5"/>
-    <col min="11" max="11" width="8.83203125" style="8"/>
-    <col min="12" max="12" width="8.83203125" style="7"/>
-    <col min="13" max="13" width="8.83203125" style="6"/>
-    <col min="14" max="14" width="8.83203125" style="7"/>
-    <col min="15" max="15" width="8.83203125" style="6"/>
-    <col min="16" max="16" width="8.83203125" style="5"/>
-    <col min="17" max="17" width="8.83203125" style="8"/>
-    <col min="18" max="18" width="8.83203125" style="5"/>
-    <col min="19" max="19" width="8.83203125" style="8"/>
-    <col min="20" max="20" width="8.83203125" style="7"/>
-    <col min="21" max="21" width="8.83203125" style="6"/>
-    <col min="22" max="22" width="8.83203125" style="7"/>
-    <col min="23" max="23" width="8.83203125" style="6"/>
-    <col min="24" max="24" width="8.83203125" style="9"/>
-    <col min="25" max="25" width="12" style="9" customWidth="1"/>
-    <col min="26" max="26" width="11.5" style="9" customWidth="1"/>
-    <col min="27" max="28" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1"/>
+    <col min="4" max="5" width="8.83203125" style="2"/>
+    <col min="6" max="6" width="8.83203125" style="3"/>
+    <col min="7" max="7" width="8.83203125" style="2"/>
+    <col min="8" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="8.83203125" style="4"/>
+    <col min="10" max="10" width="8.83203125" style="1"/>
+    <col min="11" max="11" width="8.83203125" style="4"/>
+    <col min="12" max="12" width="8.83203125" style="3"/>
+    <col min="13" max="13" width="8.83203125" style="2"/>
+    <col min="14" max="14" width="8.83203125" style="3"/>
+    <col min="15" max="15" width="8.83203125" style="2"/>
+    <col min="16" max="16" width="8.83203125" style="1"/>
+    <col min="17" max="17" width="8.83203125" style="4"/>
+    <col min="18" max="18" width="8.83203125" style="1"/>
+    <col min="19" max="19" width="8.83203125" style="4"/>
+    <col min="20" max="20" width="8.83203125" style="3"/>
+    <col min="21" max="21" width="8.83203125" style="2"/>
+    <col min="22" max="22" width="8.83203125" style="3"/>
+    <col min="23" max="23" width="8.83203125" style="2"/>
+    <col min="24" max="24" width="8.83203125" style="5"/>
+    <col min="25" max="25" width="12" style="5" customWidth="1"/>
+    <col min="26" max="26" width="11.5" style="5" customWidth="1"/>
+    <col min="27" max="28" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="18"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="14"/>
       <c r="X1"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="20"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="16"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="18"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="14"/>
       <c r="X2"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="20"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="16"/>
     </row>
     <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="32" t="s">
         <v>8</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
-      <c r="F3" s="37"/>
+      <c r="F3" s="33"/>
       <c r="G3"/>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="39" t="s">
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="38" t="s">
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="39" t="s">
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
       <c r="X3"/>
-      <c r="Y3" s="40" t="s">
+      <c r="Y3" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="41"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="34"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="4" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="3" t="s">
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="4" t="s">
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="3" t="s">
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="35"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="31"/>
     </row>
     <row r="5" spans="1:28" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="47"/>
+      <c r="F5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="47"/>
+      <c r="H5" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
+      <c r="I5" s="48"/>
+      <c r="J5" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="2" t="s">
+      <c r="K5" s="48"/>
+      <c r="L5" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
+      <c r="M5" s="47"/>
+      <c r="N5" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="1" t="s">
+      <c r="O5" s="47"/>
+      <c r="P5" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1" t="s">
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="1"/>
-      <c r="T5" s="2" t="s">
+      <c r="S5" s="48"/>
+      <c r="T5" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2" t="s">
+      <c r="U5" s="47"/>
+      <c r="V5" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="2"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="50" t="s">
+      <c r="W5" s="47"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="Z5" s="51" t="s">
+      <c r="Z5" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="35"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="31"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="27">
+      <c r="D6" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="23">
         <v>4</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="48">
+      <c r="F6" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="41">
         <v>4</v>
       </c>
-      <c r="H6" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="30">
-        <v>1</v>
-      </c>
-      <c r="J6" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="49">
-        <v>1</v>
-      </c>
-      <c r="L6" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="27">
-        <v>1</v>
-      </c>
-      <c r="N6" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="48">
-        <v>1</v>
-      </c>
-      <c r="P6" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q6" s="30">
+      <c r="H6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="26">
+        <v>1</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="42">
+        <v>1</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="23">
+        <v>1</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="41">
+        <v>1</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="26">
         <v>1.5</v>
       </c>
-      <c r="R6" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="S6" s="49">
+      <c r="R6" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" s="42">
         <v>1.5</v>
       </c>
-      <c r="T6" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="U6" s="27">
+      <c r="T6" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6" s="23">
         <v>0.5</v>
       </c>
-      <c r="V6" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="W6" s="48">
+      <c r="V6" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" s="41">
         <v>0.5</v>
       </c>
-      <c r="X6" s="32" t="s">
+      <c r="X6" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="Y6" s="10" t="str">
+      <c r="Y6" s="6" t="str">
         <f>IF(E6&lt;&gt;SUM(I6,M6,Q6,U6), "ERROR","PASSED")</f>
         <v>PASSED</v>
       </c>
-      <c r="Z6" s="10" t="str">
+      <c r="Z6" s="6" t="str">
         <f>IF(G6&lt;&gt;SUM(K6,O6,S6,W6), "ERROR","PASSED")</f>
         <v>PASSED</v>
       </c>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="35"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="31"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="27">
+      <c r="A7" s="19"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="23">
         <v>2</v>
       </c>
-      <c r="F7" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="48">
+      <c r="F7" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="41">
         <v>2</v>
       </c>
-      <c r="H7" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="49"/>
-      <c r="L7" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="27"/>
-      <c r="N7" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="48"/>
-      <c r="P7" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="30">
-        <v>1</v>
-      </c>
-      <c r="R7" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="S7" s="49">
-        <v>1</v>
-      </c>
-      <c r="T7" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="U7" s="27">
-        <v>1</v>
-      </c>
-      <c r="V7" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="W7" s="48">
-        <v>1</v>
-      </c>
-      <c r="X7" s="32" t="s">
+      <c r="H7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="42"/>
+      <c r="L7" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="23"/>
+      <c r="N7" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="41"/>
+      <c r="P7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>1</v>
+      </c>
+      <c r="R7" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="42">
+        <v>1</v>
+      </c>
+      <c r="T7" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="U7" s="23">
+        <v>1</v>
+      </c>
+      <c r="V7" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="W7" s="41">
+        <v>1</v>
+      </c>
+      <c r="X7" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="Y7" s="10" t="str">
+      <c r="Y7" s="6" t="str">
         <f>IF(E7&lt;&gt;SUM(I7,M7,Q7,U7), "ERROR","PASSED")</f>
         <v>PASSED</v>
       </c>
-      <c r="Z7" s="10" t="str">
+      <c r="Z7" s="6" t="str">
         <f>IF(G7&lt;&gt;SUM(K7,O7,S7,W7), "ERROR","PASSED")</f>
         <v>PASSED</v>
       </c>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="35"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="31"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="48"/>
-      <c r="H8" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="49"/>
-      <c r="L8" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="27"/>
-      <c r="N8" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="48"/>
-      <c r="P8" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="S8" s="49"/>
-      <c r="T8" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="U8" s="27"/>
-      <c r="V8" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="W8" s="48"/>
-      <c r="X8" s="32" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="41"/>
+      <c r="H8" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="42"/>
+      <c r="L8" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="23"/>
+      <c r="N8" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="41"/>
+      <c r="P8" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="42"/>
+      <c r="T8" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="U8" s="23"/>
+      <c r="V8" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="W8" s="41"/>
+      <c r="X8" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="Y8" s="10" t="str">
+      <c r="Y8" s="6" t="str">
         <f>IF(E8&lt;&gt;SUM(I8,M8,Q8,U8), "ERROR","PASSED")</f>
         <v>PASSED</v>
       </c>
-      <c r="Z8" s="10" t="str">
+      <c r="Z8" s="6" t="str">
         <f>IF(G8&lt;&gt;SUM(K8,O8,S8,W8), "ERROR","PASSED")</f>
         <v>PASSED</v>
       </c>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="35"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="31"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="47"/>
-      <c r="AB9" s="35"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="31"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="27">
+      <c r="D10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="23">
         <v>3</v>
       </c>
-      <c r="F10" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="48">
+      <c r="F10" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="41">
         <v>3</v>
       </c>
-      <c r="H10" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="49"/>
-      <c r="L10" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="27">
+      <c r="H10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="42"/>
+      <c r="L10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="23">
         <v>2</v>
       </c>
-      <c r="N10" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O10" s="48">
+      <c r="N10" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" s="41">
         <v>2</v>
       </c>
-      <c r="P10" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q10" s="30">
-        <v>1</v>
-      </c>
-      <c r="R10" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="S10" s="49">
-        <v>1</v>
-      </c>
-      <c r="T10" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="U10" s="27"/>
-      <c r="V10" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="W10" s="48"/>
-      <c r="X10" s="32" t="s">
+      <c r="P10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="26">
+        <v>1</v>
+      </c>
+      <c r="R10" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="S10" s="42">
+        <v>1</v>
+      </c>
+      <c r="T10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="U10" s="23"/>
+      <c r="V10" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="W10" s="41"/>
+      <c r="X10" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="Y10" s="10" t="str">
+      <c r="Y10" s="6" t="str">
         <f>IF(E10&lt;&gt;SUM(I10,M10,Q10,U10), "ERROR","PASSED")</f>
         <v>PASSED</v>
       </c>
-      <c r="Z10" s="10" t="str">
+      <c r="Z10" s="6" t="str">
         <f>IF(G10&lt;&gt;SUM(K10,O10,S10,W10), "ERROR","PASSED")</f>
         <v>PASSED</v>
       </c>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="35"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="31"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="27">
+      <c r="A11" s="19"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="23">
         <v>3</v>
       </c>
-      <c r="F11" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="48">
+      <c r="F11" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="41">
         <v>3</v>
       </c>
-      <c r="H11" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="30">
+      <c r="H11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="26">
         <v>1.5</v>
       </c>
-      <c r="J11" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="49">
+      <c r="J11" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="42">
         <v>1.5</v>
       </c>
-      <c r="L11" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="27">
+      <c r="L11" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="23">
         <v>1.5</v>
       </c>
-      <c r="N11" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" s="48">
+      <c r="N11" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="41">
         <v>1.5</v>
       </c>
-      <c r="P11" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="S11" s="49"/>
-      <c r="T11" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="U11" s="27"/>
-      <c r="V11" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="W11" s="48"/>
-      <c r="X11" s="32" t="s">
+      <c r="P11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="42"/>
+      <c r="T11" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="U11" s="23"/>
+      <c r="V11" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="41"/>
+      <c r="X11" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="Y11" s="10" t="str">
+      <c r="Y11" s="6" t="str">
         <f>IF(E11&lt;&gt;SUM(I11,M11,Q11,U11), "ERROR","PASSED")</f>
         <v>PASSED</v>
       </c>
-      <c r="Z11" s="10" t="str">
+      <c r="Z11" s="6" t="str">
         <f>IF(G11&lt;&gt;SUM(K11,O11,S11,W11), "ERROR","PASSED")</f>
         <v>PASSED</v>
       </c>
-      <c r="AA11" s="47"/>
-      <c r="AB11" s="35"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="31"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="48"/>
-      <c r="H12" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="49"/>
-      <c r="L12" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="27"/>
-      <c r="N12" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" s="48"/>
-      <c r="P12" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="S12" s="49"/>
-      <c r="T12" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="U12" s="27"/>
-      <c r="V12" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="W12" s="48"/>
-      <c r="X12" s="32" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="42"/>
+      <c r="L12" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="23"/>
+      <c r="N12" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="41"/>
+      <c r="P12" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="S12" s="42"/>
+      <c r="T12" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="U12" s="23"/>
+      <c r="V12" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="W12" s="41"/>
+      <c r="X12" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="Y12" s="10" t="str">
+      <c r="Y12" s="6" t="str">
         <f>IF(E12&lt;&gt;SUM(I12,M12,Q12,U12), "ERROR","PASSED")</f>
         <v>PASSED</v>
       </c>
-      <c r="Z12" s="10" t="str">
+      <c r="Z12" s="6" t="str">
         <f>IF(G12&lt;&gt;SUM(K12,O12,S12,W12), "ERROR","PASSED")</f>
         <v>PASSED</v>
       </c>
-      <c r="AA12" s="47"/>
-      <c r="AB12" s="35"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="31"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="46"/>
-      <c r="AA13" s="47"/>
-      <c r="AB13" s="35"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="31"/>
     </row>
-    <row r="14" spans="1:28" ht="45" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="27">
+      <c r="D14" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="23">
         <v>4</v>
       </c>
-      <c r="F14" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="48">
+      <c r="F14" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="41">
         <v>4</v>
       </c>
-      <c r="H14" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="30">
+      <c r="H14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="26">
         <v>1.5</v>
       </c>
-      <c r="J14" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="49">
+      <c r="J14" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="42">
         <v>1.5</v>
       </c>
-      <c r="L14" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14" s="27">
+      <c r="L14" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="23">
         <v>0.5</v>
       </c>
-      <c r="N14" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O14" s="48">
+      <c r="N14" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" s="41">
         <v>0.5</v>
       </c>
-      <c r="P14" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q14" s="30">
-        <v>1</v>
-      </c>
-      <c r="R14" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="S14" s="49">
-        <v>1</v>
-      </c>
-      <c r="T14" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="U14" s="27">
-        <v>1</v>
-      </c>
-      <c r="V14" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="W14" s="48">
-        <v>1</v>
-      </c>
-      <c r="X14" s="32" t="s">
+      <c r="P14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q14" s="26">
+        <v>1</v>
+      </c>
+      <c r="R14" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="S14" s="42">
+        <v>1</v>
+      </c>
+      <c r="T14" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="U14" s="23">
+        <v>1</v>
+      </c>
+      <c r="V14" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="W14" s="41">
+        <v>1</v>
+      </c>
+      <c r="X14" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="Y14" s="10" t="str">
+      <c r="Y14" s="6" t="str">
         <f>IF(E14&lt;&gt;SUM(I14,M14,Q14,U14), "ERROR","PASSED")</f>
         <v>PASSED</v>
       </c>
-      <c r="Z14" s="10" t="str">
+      <c r="Z14" s="6" t="str">
         <f>IF(G14&lt;&gt;SUM(K14,O14,S14,W14), "ERROR","PASSED")</f>
         <v>PASSED</v>
       </c>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="35"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="31"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="27">
+      <c r="A15" s="19"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="23">
         <v>2</v>
       </c>
-      <c r="F15" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="48">
+      <c r="F15" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="41">
         <v>2</v>
       </c>
-      <c r="H15" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="30">
+      <c r="H15" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="26">
         <v>0.5</v>
       </c>
-      <c r="J15" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="49">
+      <c r="J15" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="42">
         <v>0.5</v>
       </c>
-      <c r="L15" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="27">
+      <c r="L15" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="23">
         <v>0.5</v>
       </c>
-      <c r="N15" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="O15" s="48">
+      <c r="N15" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" s="41">
         <v>0.5</v>
       </c>
-      <c r="P15" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="30">
-        <v>1</v>
-      </c>
-      <c r="R15" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="S15" s="49">
-        <v>1</v>
-      </c>
-      <c r="T15" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="U15" s="27"/>
-      <c r="V15" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="W15" s="48"/>
-      <c r="X15" s="32" t="s">
+      <c r="P15" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="26">
+        <v>1</v>
+      </c>
+      <c r="R15" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="S15" s="42">
+        <v>1</v>
+      </c>
+      <c r="T15" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="U15" s="23"/>
+      <c r="V15" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="W15" s="41"/>
+      <c r="X15" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="Y15" s="10" t="str">
+      <c r="Y15" s="6" t="str">
         <f>IF(E15&lt;&gt;SUM(I15,M15,Q15,U15), "ERROR","PASSED")</f>
         <v>PASSED</v>
       </c>
-      <c r="Z15" s="10" t="str">
+      <c r="Z15" s="6" t="str">
         <f>IF(G15&lt;&gt;SUM(K15,O15,S15,W15), "ERROR","PASSED")</f>
         <v>PASSED</v>
       </c>
-      <c r="AA15" s="47"/>
-      <c r="AB15" s="35"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="31"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="49"/>
-      <c r="L16" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="M16" s="27"/>
-      <c r="N16" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" s="48"/>
-      <c r="P16" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="S16" s="49"/>
-      <c r="T16" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="U16" s="27"/>
-      <c r="V16" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="W16" s="48"/>
-      <c r="X16" s="32" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="41"/>
+      <c r="H16" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="26"/>
+      <c r="J16" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="42"/>
+      <c r="L16" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="23"/>
+      <c r="N16" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="41"/>
+      <c r="P16" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="S16" s="42"/>
+      <c r="T16" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="U16" s="23"/>
+      <c r="V16" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="W16" s="41"/>
+      <c r="X16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="Y16" s="10" t="str">
+      <c r="Y16" s="6" t="str">
         <f>IF(E16&lt;&gt;SUM(I16,M16,Q16,U16), "ERROR","PASSED")</f>
         <v>PASSED</v>
       </c>
-      <c r="Z16" s="10" t="str">
+      <c r="Z16" s="6" t="str">
         <f>IF(G16&lt;&gt;SUM(K16,O16,S16,W16), "ERROR","PASSED")</f>
         <v>PASSED</v>
       </c>
-      <c r="AA16" s="47"/>
-      <c r="AB16" s="35"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="31"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="46"/>
-      <c r="Z17" s="46"/>
-      <c r="AA17" s="47"/>
-      <c r="AB17" s="35"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="31"/>
     </row>
-    <row r="18" spans="1:28" ht="60" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
+    <row r="18" spans="1:28" ht="30" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="27">
+      <c r="D18" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="23">
         <v>4</v>
       </c>
-      <c r="F18" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="48">
+      <c r="F18" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="41">
         <v>4</v>
       </c>
-      <c r="H18" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="30">
-        <v>1.5</v>
-      </c>
-      <c r="J18" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="49">
-        <v>1.5</v>
-      </c>
-      <c r="L18" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="M18" s="27">
-        <v>1</v>
-      </c>
-      <c r="N18" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O18" s="48">
-        <v>1</v>
-      </c>
-      <c r="P18" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="S18" s="49"/>
-      <c r="T18" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="U18" s="27">
-        <v>1</v>
-      </c>
-      <c r="V18" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="W18" s="48">
-        <v>1</v>
-      </c>
-      <c r="X18" s="32" t="s">
+      <c r="H18" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="26">
+        <v>2</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="42">
+        <v>2</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="23">
+        <v>1</v>
+      </c>
+      <c r="N18" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18" s="41">
+        <v>1</v>
+      </c>
+      <c r="P18" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="S18" s="42"/>
+      <c r="T18" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="U18" s="23">
+        <v>1</v>
+      </c>
+      <c r="V18" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="W18" s="41">
+        <v>1</v>
+      </c>
+      <c r="X18" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="Y18" s="10" t="str">
+      <c r="Y18" s="6" t="str">
         <f>IF(E18&lt;&gt;SUM(I18,M18,Q18,U18), "ERROR","PASSED")</f>
-        <v>ERROR</v>
-      </c>
-      <c r="Z18" s="10" t="str">
+        <v>PASSED</v>
+      </c>
+      <c r="Z18" s="6" t="str">
         <f>IF(G18&lt;&gt;SUM(K18,O18,S18,W18), "ERROR","PASSED")</f>
-        <v>ERROR</v>
-      </c>
-      <c r="AA18" s="47"/>
-      <c r="AB18" s="35"/>
+        <v>PASSED</v>
+      </c>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="31"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="27">
+      <c r="A19" s="19"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="23">
         <v>3</v>
       </c>
-      <c r="F19" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="48">
+      <c r="F19" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="41">
         <v>3</v>
       </c>
-      <c r="H19" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="30">
+      <c r="H19" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="26">
         <v>2</v>
       </c>
-      <c r="J19" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" s="49">
+      <c r="J19" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="42">
         <v>2</v>
       </c>
-      <c r="L19" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="M19" s="27">
-        <v>1</v>
-      </c>
-      <c r="N19" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="O19" s="48">
-        <v>1</v>
-      </c>
-      <c r="P19" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="S19" s="49"/>
-      <c r="T19" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="U19" s="27"/>
-      <c r="V19" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="W19" s="48"/>
-      <c r="X19" s="32" t="s">
+      <c r="L19" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="23">
+        <v>1</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="41">
+        <v>1</v>
+      </c>
+      <c r="P19" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="S19" s="42"/>
+      <c r="T19" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="U19" s="23"/>
+      <c r="V19" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="W19" s="41"/>
+      <c r="X19" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="Y19" s="10" t="str">
+      <c r="Y19" s="6" t="str">
         <f>IF(E19&lt;&gt;SUM(I19,M19,Q19,U19), "ERROR","PASSED")</f>
         <v>PASSED</v>
       </c>
-      <c r="Z19" s="10" t="str">
+      <c r="Z19" s="6" t="str">
         <f>IF(G19&lt;&gt;SUM(K19,O19,S19,W19), "ERROR","PASSED")</f>
         <v>PASSED</v>
       </c>
-      <c r="AA19" s="47"/>
-      <c r="AB19" s="35"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="31"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="49"/>
-      <c r="L20" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="M20" s="27"/>
-      <c r="N20" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="O20" s="48"/>
-      <c r="P20" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="S20" s="49"/>
-      <c r="T20" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="U20" s="27"/>
-      <c r="V20" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="W20" s="48"/>
-      <c r="X20" s="32" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="41"/>
+      <c r="H20" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="42"/>
+      <c r="L20" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" s="23"/>
+      <c r="N20" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" s="41"/>
+      <c r="P20" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="S20" s="42"/>
+      <c r="T20" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="U20" s="23"/>
+      <c r="V20" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="W20" s="41"/>
+      <c r="X20" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="Y20" s="10" t="str">
+      <c r="Y20" s="6" t="str">
         <f>IF(E20&lt;&gt;SUM(I20,M20,Q20,U20), "ERROR","PASSED")</f>
         <v>PASSED</v>
       </c>
-      <c r="Z20" s="10" t="str">
+      <c r="Z20" s="6" t="str">
         <f>IF(G20&lt;&gt;SUM(K20,O20,S20,W20), "ERROR","PASSED")</f>
         <v>PASSED</v>
       </c>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="35"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="31"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="46"/>
-      <c r="AA21" s="47"/>
-      <c r="AB21" s="35"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="31"/>
     </row>
     <row r="22" spans="1:28" ht="30" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="27">
-        <v>1</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="48">
-        <v>1</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="30"/>
-      <c r="J22" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="49"/>
-      <c r="L22" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="M22" s="27">
-        <v>1</v>
-      </c>
-      <c r="N22" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O22" s="48">
-        <v>1</v>
-      </c>
-      <c r="P22" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="S22" s="49"/>
-      <c r="T22" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="U22" s="27"/>
-      <c r="V22" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="W22" s="48"/>
-      <c r="X22" s="32" t="s">
+      <c r="D22" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="23">
+        <v>1</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="41">
+        <v>1</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="26"/>
+      <c r="J22" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="42"/>
+      <c r="L22" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" s="23">
+        <v>1</v>
+      </c>
+      <c r="N22" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" s="41">
+        <v>1</v>
+      </c>
+      <c r="P22" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="S22" s="42"/>
+      <c r="T22" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="U22" s="23"/>
+      <c r="V22" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="W22" s="41"/>
+      <c r="X22" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="Y22" s="10" t="str">
+      <c r="Y22" s="6" t="str">
         <f>IF(E22&lt;&gt;SUM(I22,M22,Q22,U22), "ERROR","PASSED")</f>
         <v>PASSED</v>
       </c>
-      <c r="Z22" s="10" t="str">
+      <c r="Z22" s="6" t="str">
         <f>IF(G22&lt;&gt;SUM(K22,O22,S22,W22), "ERROR","PASSED")</f>
         <v>PASSED</v>
       </c>
-      <c r="AA22" s="47"/>
-      <c r="AB22" s="35"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="31"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="27">
+      <c r="A23" s="19"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="23">
         <v>2</v>
       </c>
-      <c r="F23" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="48">
+      <c r="F23" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="41">
         <v>2</v>
       </c>
-      <c r="H23" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23" s="30"/>
-      <c r="J23" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="K23" s="49"/>
-      <c r="L23" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="M23" s="27">
+      <c r="H23" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="26"/>
+      <c r="J23" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="42"/>
+      <c r="L23" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="23">
         <v>2</v>
       </c>
-      <c r="N23" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="O23" s="48">
+      <c r="N23" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="O23" s="41">
         <v>2</v>
       </c>
-      <c r="P23" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="S23" s="49"/>
-      <c r="T23" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="U23" s="27"/>
-      <c r="V23" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="W23" s="48"/>
-      <c r="X23" s="32" t="s">
+      <c r="P23" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="S23" s="42"/>
+      <c r="T23" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="U23" s="23"/>
+      <c r="V23" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="W23" s="41"/>
+      <c r="X23" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="Y23" s="10" t="str">
+      <c r="Y23" s="6" t="str">
         <f>IF(E23&lt;&gt;SUM(I23,M23,Q23,U23), "ERROR","PASSED")</f>
         <v>PASSED</v>
       </c>
-      <c r="Z23" s="10" t="str">
+      <c r="Z23" s="6" t="str">
         <f>IF(G23&lt;&gt;SUM(K23,O23,S23,W23), "ERROR","PASSED")</f>
         <v>PASSED</v>
       </c>
-      <c r="AA23" s="47"/>
-      <c r="AB23" s="35"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="31"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="48"/>
-      <c r="H24" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" s="49"/>
-      <c r="L24" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="M24" s="27"/>
-      <c r="N24" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="O24" s="48"/>
-      <c r="P24" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="S24" s="49"/>
-      <c r="T24" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="U24" s="27"/>
-      <c r="V24" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="W24" s="48"/>
-      <c r="X24" s="32" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="41"/>
+      <c r="H24" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="26"/>
+      <c r="J24" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="42"/>
+      <c r="L24" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" s="23"/>
+      <c r="N24" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" s="41"/>
+      <c r="P24" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="S24" s="42"/>
+      <c r="T24" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="U24" s="23"/>
+      <c r="V24" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="W24" s="41"/>
+      <c r="X24" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="Y24" s="10" t="str">
+      <c r="Y24" s="6" t="str">
         <f>IF(E24&lt;&gt;SUM(I24,M24,Q24,U24), "ERROR","PASSED")</f>
         <v>PASSED</v>
       </c>
-      <c r="Z24" s="10" t="str">
+      <c r="Z24" s="6" t="str">
         <f>IF(G24&lt;&gt;SUM(K24,O24,S24,W24), "ERROR","PASSED")</f>
         <v>PASSED</v>
       </c>
-      <c r="AA24" s="47"/>
-      <c r="AB24" s="35"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="31"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="42"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="43"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="P4:S4"/>
@@ -2446,11 +2451,6 @@
     <mergeCell ref="R5:S5"/>
     <mergeCell ref="T5:U5"/>
     <mergeCell ref="V5:W5"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="Y3:Z3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
